--- a/excel/niboserver/powerBalance.xlsx
+++ b/excel/niboserver/powerBalance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\niboserver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\excel\niboserver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556B875-7739-4979-9460-60B9932E03F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DAFFD-FBAC-4B3A-A2E7-CA93E57F7C75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="420" windowWidth="19350" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ナタ情報" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -716,451 +716,451 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>173</v>
+      </c>
+      <c r="E2">
+        <v>102826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>323</v>
+      </c>
+      <c r="E3">
+        <v>114616</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>255</v>
+      </c>
+      <c r="E4">
+        <v>106402</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>268</v>
+      </c>
+      <c r="E5">
+        <v>94906</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="D6">
+        <v>279</v>
+      </c>
+      <c r="E6">
+        <v>96786</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>4</v>
+      <c r="D7">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>88965</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="E8">
-        <v>102826</v>
+        <v>99002</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>323</v>
-      </c>
-      <c r="E16">
-        <v>114616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:3">
       <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>255</v>
-      </c>
-      <c r="E19">
-        <v>106402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>268</v>
-      </c>
-      <c r="E24">
-        <v>94906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>279</v>
-      </c>
-      <c r="E26">
-        <v>96786</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>217</v>
-      </c>
-      <c r="E32">
-        <v>88965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>288</v>
-      </c>
-      <c r="E34">
-        <v>99002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1179,7 +1179,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{0C0C2125-2507-42E9-AEAC-0114795B7A02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
-      <sortCondition ref="A1"/>
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
